--- a/Backend/form_data.xlsx
+++ b/Backend/form_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,17 +481,159 @@
           <t xml:space="preserve">NGAT Innovations </t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>7678447952</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Document Organiser</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AAYUSH MISHRA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10323210240@stu.smuniversity.ac.in</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SRM</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>7678447952</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Visitor Management System</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aayush Mishra</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>aayushmishra82017@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NGAT Innovations </t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>7678447952</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Bill Organiser, Visitor Management System, Stock Manager and Tracker</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raghav </t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>aayushmishra82018@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ashoka</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12345676i7</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Stock Manager and Tracker, Machine Fault and Maintenance Detector, Automated Product Fault Detector</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">i need a personalised server space </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raghav Saini </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>raghavsaini9560@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NGAT</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7701970160</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Data Handler, Production Line Record Keeper, Automated Product Fault Detector, Machine Line Organiser</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>I need my Server space</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Aayush Mishra</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>aayushmishra82018@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SRM</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>07678447952</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Document Organiser</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Stock Manager and Tracker</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
